--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ifna11-Ifnar2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ifna11-Ifnar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Ifna11</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01784033333333334</v>
+        <v>0.01784033333333333</v>
       </c>
       <c r="H2">
-        <v>0.05352100000000001</v>
+        <v>0.053521</v>
       </c>
       <c r="I2">
-        <v>0.9079050042408821</v>
+        <v>0.5331892128831728</v>
       </c>
       <c r="J2">
-        <v>0.9079050042408822</v>
+        <v>0.5331892128831728</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.35034833333334</v>
+        <v>33.16156633333333</v>
       </c>
       <c r="N2">
-        <v>100.051045</v>
+        <v>99.48469900000001</v>
       </c>
       <c r="O2">
-        <v>0.2287589433580892</v>
+        <v>0.2666406279966088</v>
       </c>
       <c r="P2">
-        <v>0.2287589433580892</v>
+        <v>0.2666406279966088</v>
       </c>
       <c r="Q2">
-        <v>0.5949813310494446</v>
+        <v>0.5916133972421111</v>
       </c>
       <c r="R2">
-        <v>5.354831979445001</v>
+        <v>5.324520575179</v>
       </c>
       <c r="S2">
-        <v>0.2076913894396657</v>
+        <v>0.1421699065641867</v>
       </c>
       <c r="T2">
-        <v>0.2076913894396658</v>
+        <v>0.1421699065641867</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01784033333333334</v>
+        <v>0.01784033333333333</v>
       </c>
       <c r="H3">
-        <v>0.05352100000000001</v>
+        <v>0.053521</v>
       </c>
       <c r="I3">
-        <v>0.9079050042408821</v>
+        <v>0.5331892128831728</v>
       </c>
       <c r="J3">
-        <v>0.9079050042408822</v>
+        <v>0.5331892128831728</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>77.03389199999999</v>
       </c>
       <c r="O3">
-        <v>0.176132010781908</v>
+        <v>0.2064675829184841</v>
       </c>
       <c r="P3">
-        <v>0.176132010781908</v>
+        <v>0.2064675829184841</v>
       </c>
       <c r="Q3">
-        <v>0.4581034370813334</v>
+        <v>0.4581034370813333</v>
       </c>
       <c r="R3">
-        <v>4.122930933732</v>
+        <v>4.122930933731999</v>
       </c>
       <c r="S3">
-        <v>0.1599111339959033</v>
+        <v>0.1100862880221978</v>
       </c>
       <c r="T3">
-        <v>0.1599111339959033</v>
+        <v>0.1100862880221977</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01784033333333334</v>
+        <v>0.01784033333333333</v>
       </c>
       <c r="H4">
-        <v>0.05352100000000001</v>
+        <v>0.053521</v>
       </c>
       <c r="I4">
-        <v>0.9079050042408821</v>
+        <v>0.5331892128831728</v>
       </c>
       <c r="J4">
-        <v>0.9079050042408822</v>
+        <v>0.5331892128831728</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.20708666666667</v>
+        <v>15.57007066666667</v>
       </c>
       <c r="N4">
-        <v>39.62126000000001</v>
+        <v>46.710212</v>
       </c>
       <c r="O4">
-        <v>0.09059093357911582</v>
+        <v>0.1251935261073135</v>
       </c>
       <c r="P4">
-        <v>0.09059093357911582</v>
+        <v>0.1251935261073135</v>
       </c>
       <c r="Q4">
-        <v>0.2356188284955556</v>
+        <v>0.2777752507168889</v>
       </c>
       <c r="R4">
-        <v>2.120569456460001</v>
+        <v>2.499977256452</v>
       </c>
       <c r="S4">
-        <v>0.08224796193533261</v>
+        <v>0.06675183764322745</v>
       </c>
       <c r="T4">
-        <v>0.08224796193533263</v>
+        <v>0.06675183764322745</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.01784033333333334</v>
+        <v>0.01784033333333333</v>
       </c>
       <c r="H5">
-        <v>0.05352100000000001</v>
+        <v>0.053521</v>
       </c>
       <c r="I5">
-        <v>0.9079050042408821</v>
+        <v>0.5331892128831728</v>
       </c>
       <c r="J5">
-        <v>0.9079050042408822</v>
+        <v>0.5331892128831728</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>73.55277366666667</v>
+        <v>49.95841666666666</v>
       </c>
       <c r="N5">
-        <v>220.658321</v>
+        <v>149.87525</v>
       </c>
       <c r="O5">
-        <v>0.5045181122808869</v>
+        <v>0.4016982629775935</v>
       </c>
       <c r="P5">
-        <v>0.5045181122808869</v>
+        <v>0.4016982629775935</v>
       </c>
       <c r="Q5">
-        <v>1.312205999804556</v>
+        <v>0.8912748061388889</v>
       </c>
       <c r="R5">
-        <v>11.809853998241</v>
+        <v>8.021473255249999</v>
       </c>
       <c r="S5">
-        <v>0.4580545188699804</v>
+        <v>0.2141811806535608</v>
       </c>
       <c r="T5">
-        <v>0.4580545188699805</v>
+        <v>0.2141811806535608</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>0.005429</v>
       </c>
       <c r="I6">
-        <v>0.09209499575911788</v>
+        <v>0.05408501778260393</v>
       </c>
       <c r="J6">
-        <v>0.09209499575911789</v>
+        <v>0.05408501778260393</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.35034833333334</v>
+        <v>33.16156633333333</v>
       </c>
       <c r="N6">
-        <v>100.051045</v>
+        <v>99.48469900000001</v>
       </c>
       <c r="O6">
-        <v>0.2287589433580892</v>
+        <v>0.2666406279966088</v>
       </c>
       <c r="P6">
-        <v>0.2287589433580892</v>
+        <v>0.2666406279966088</v>
       </c>
       <c r="Q6">
-        <v>0.06035301370055556</v>
+        <v>0.06001138120788889</v>
       </c>
       <c r="R6">
-        <v>0.543177123305</v>
+        <v>0.540102430871</v>
       </c>
       <c r="S6">
-        <v>0.02106755391842352</v>
+        <v>0.01442126310676126</v>
       </c>
       <c r="T6">
-        <v>0.02106755391842352</v>
+        <v>0.01442126310676126</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,10 +853,10 @@
         <v>0.005429</v>
       </c>
       <c r="I7">
-        <v>0.09209499575911788</v>
+        <v>0.05408501778260393</v>
       </c>
       <c r="J7">
-        <v>0.09209499575911789</v>
+        <v>0.05408501778260393</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>77.03389199999999</v>
       </c>
       <c r="O7">
-        <v>0.176132010781908</v>
+        <v>0.2064675829184841</v>
       </c>
       <c r="P7">
-        <v>0.176132010781908</v>
+        <v>0.2064675829184841</v>
       </c>
       <c r="Q7">
         <v>0.04646855551866667</v>
@@ -883,10 +883,10 @@
         <v>0.418216999668</v>
       </c>
       <c r="S7">
-        <v>0.01622087678600472</v>
+        <v>0.01116680289367747</v>
       </c>
       <c r="T7">
-        <v>0.01622087678600473</v>
+        <v>0.01116680289367747</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -915,10 +915,10 @@
         <v>0.005429</v>
       </c>
       <c r="I8">
-        <v>0.09209499575911788</v>
+        <v>0.05408501778260393</v>
       </c>
       <c r="J8">
-        <v>0.09209499575911789</v>
+        <v>0.05408501778260393</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.20708666666667</v>
+        <v>15.57007066666667</v>
       </c>
       <c r="N8">
-        <v>39.62126000000001</v>
+        <v>46.710212</v>
       </c>
       <c r="O8">
-        <v>0.09059093357911582</v>
+        <v>0.1251935261073135</v>
       </c>
       <c r="P8">
-        <v>0.09059093357911582</v>
+        <v>0.1251935261073135</v>
       </c>
       <c r="Q8">
-        <v>0.02390042450444445</v>
+        <v>0.02817663788311111</v>
       </c>
       <c r="R8">
-        <v>0.21510382054</v>
+        <v>0.253589740948</v>
       </c>
       <c r="S8">
-        <v>0.008342971643783201</v>
+        <v>0.006771094085780943</v>
       </c>
       <c r="T8">
-        <v>0.008342971643783203</v>
+        <v>0.006771094085780943</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -977,10 +977,10 @@
         <v>0.005429</v>
       </c>
       <c r="I9">
-        <v>0.09209499575911788</v>
+        <v>0.05408501778260393</v>
       </c>
       <c r="J9">
-        <v>0.09209499575911789</v>
+        <v>0.05408501778260393</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,276 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>73.55277366666667</v>
+        <v>49.95841666666666</v>
       </c>
       <c r="N9">
-        <v>220.658321</v>
+        <v>149.87525</v>
       </c>
       <c r="O9">
-        <v>0.5045181122808869</v>
+        <v>0.4016982629775935</v>
       </c>
       <c r="P9">
-        <v>0.5045181122808869</v>
+        <v>0.4016982629775935</v>
       </c>
       <c r="Q9">
-        <v>0.1331060027454445</v>
+        <v>0.09040808136111111</v>
       </c>
       <c r="R9">
-        <v>1.197954024709</v>
+        <v>0.8136727322499999</v>
       </c>
       <c r="S9">
-        <v>0.04646359341090644</v>
+        <v>0.02172585769638426</v>
       </c>
       <c r="T9">
-        <v>0.04646359341090645</v>
+        <v>0.02172585769638425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.01380966666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.041429</v>
+      </c>
+      <c r="I10">
+        <v>0.4127257693342233</v>
+      </c>
+      <c r="J10">
+        <v>0.4127257693342233</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>33.16156633333333</v>
+      </c>
+      <c r="N10">
+        <v>99.48469900000001</v>
+      </c>
+      <c r="O10">
+        <v>0.2666406279966088</v>
+      </c>
+      <c r="P10">
+        <v>0.2666406279966088</v>
+      </c>
+      <c r="Q10">
+        <v>0.4579501772078889</v>
+      </c>
+      <c r="R10">
+        <v>4.121551594871001</v>
+      </c>
+      <c r="S10">
+        <v>0.1100494583256608</v>
+      </c>
+      <c r="T10">
+        <v>0.1100494583256608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.01380966666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.041429</v>
+      </c>
+      <c r="I11">
+        <v>0.4127257693342233</v>
+      </c>
+      <c r="J11">
+        <v>0.4127257693342233</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>25.677964</v>
+      </c>
+      <c r="N11">
+        <v>77.03389199999999</v>
+      </c>
+      <c r="O11">
+        <v>0.2064675829184841</v>
+      </c>
+      <c r="P11">
+        <v>0.2064675829184841</v>
+      </c>
+      <c r="Q11">
+        <v>0.3546041235186667</v>
+      </c>
+      <c r="R11">
+        <v>3.191437111668</v>
+      </c>
+      <c r="S11">
+        <v>0.0852144920026089</v>
+      </c>
+      <c r="T11">
+        <v>0.0852144920026089</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.01380966666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.041429</v>
+      </c>
+      <c r="I12">
+        <v>0.4127257693342233</v>
+      </c>
+      <c r="J12">
+        <v>0.4127257693342233</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>15.57007066666667</v>
+      </c>
+      <c r="N12">
+        <v>46.710212</v>
+      </c>
+      <c r="O12">
+        <v>0.1251935261073135</v>
+      </c>
+      <c r="P12">
+        <v>0.1251935261073135</v>
+      </c>
+      <c r="Q12">
+        <v>0.2150174858831111</v>
+      </c>
+      <c r="R12">
+        <v>1.935157372948</v>
+      </c>
+      <c r="S12">
+        <v>0.05167059437830515</v>
+      </c>
+      <c r="T12">
+        <v>0.05167059437830516</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01380966666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.041429</v>
+      </c>
+      <c r="I13">
+        <v>0.4127257693342233</v>
+      </c>
+      <c r="J13">
+        <v>0.4127257693342233</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>49.95841666666666</v>
+      </c>
+      <c r="N13">
+        <v>149.87525</v>
+      </c>
+      <c r="O13">
+        <v>0.4016982629775935</v>
+      </c>
+      <c r="P13">
+        <v>0.4016982629775935</v>
+      </c>
+      <c r="Q13">
+        <v>0.6899090813611111</v>
+      </c>
+      <c r="R13">
+        <v>6.20918173225</v>
+      </c>
+      <c r="S13">
+        <v>0.1657912246276484</v>
+      </c>
+      <c r="T13">
+        <v>0.1657912246276484</v>
       </c>
     </row>
   </sheetData>
